--- a/500all/speech_level/speeches_CHRG-114hhrg95682.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95682.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Miller. I think we are expecting a few more Members, but in the interest of time and there are a number of hearings happening this morning, the Committee on Homeland Security, Subcommittee on Border and Maritime Security, will come to order. The subcommittee is meeting today to examine the Department of Homeland Security's international programs.    We are pleased to be joined by Mr. Alan Bersin, who is a frequent guest here, of the Department of Homeland Security's Office of Policy; Mr. John Wagner, again another frequent guest, from the Office of Field Operations at U.S. Customs and Border Protection; Mr. Lev Kubiak of the U.S. Immigration and Customs Enforcement--I appreciate him coming again--and, also, Ms. Rebecca Gambler is back again of the Government Accountability Office.    We learned on 9/11 and again with the Christmas day bomber that we cannot wait to act until terror plots reach our shores. Pushing our borders out gives the Nation's security professionals the time and space to interdict plots before they reach the homeland. For more than 10 years the Department of Homeland Security and, in particular, its operational components have done just that.    Today we have several programs in place to stop suspected terrorists, foreign fighters, and others with significant derogatory information provided by the intelligence community from ever coming to America. No system is perfect, of course.    But the earlier in the travel and the visa process we can begin to conduct security checks, have a CBP Officer examine and pre-clear an individual or do a security advisory opinion to make sure we are examining visas appropriately, the safer the homeland will be.    The vetting these programs do has created an outer ring of border security which has become even more important due to the significant and growing threat that fighters from the Islamic State of Iraq and Syria, ISIS, pose to our Nation.    These fighters could be one flight away, bringing with them the skills, training, ideology, and commitment to killing Americans that they learned overseas, and that is why it is so important that the DHS officers and attaches abroad conduct security operations.    Today the DHS has a large footprint overseas with more than 1,800 people stationed in 77 foreign countries across the globe. I certainly understand that the posting of DHS personnel overseas is a cumbersome process with significant costs. In many cases, it costs more than $500,000 per person each year. Space is limited at many consulates and embassies overseas.    So it is incumbent on the Department to use and to constantly update its risk-based approach so that the American people are getting good security value for the expense. Threats that originate overseas have evolved over time, and our security posture should evolve with it.    DHS should constantly re-evaluate the location of their officers to ensure that we have our men and women in the right countries. Additionally, if we can do some of the screening and vetting work here at home, we should.    When the security of the homeland requires the Department to have officers overseas, we need to maximize their use to cover multiple countries within their respective issue areas as well as ensure their personal safety.    To that end, we are glad to see that, in many cases, the DHS utilizes a regional model where its attaches are covering several nearby countries to make sure the Department's investigations are being properly supported overseas.    We are also pleased that where we have the visa security program officers overseas we have the PATRIOT program that examines the totality of data on ESTA and visa applications. However, this program is limited to just those posts where visa security units are in place.    Despite the visa security program's proven security value and robust Congressional support, this program has not been expanded to all high-risk posts overseas. No issue has kept CBP leadership busier over the past few years than pre-clearance operations.    Failure to properly consult with stakeholders and the Congress and other process fouls on pre-clearance expansion caused a great deal of consternation on Capitol Hill and in this committee. I hope that the Department has looked at some of the early missteps and will keep Congress fully abreast of future plans, especially in light of the recent announcement of the intention to expand pre-clearance to 10 additional locations.    We certainly want to be clear that we support pre-clearance where it makes sense. Pre-clearance has been used as a security screening and trade facilitation tool since the early 1950s, and since 9/11 the security value of these operations has only been heightened. However, as was made clear by legislation the House passed last year, we cannot repeat the mistakes of the Abu Dhabi agreement.    Expansion of pre-clearance has to be done is such a way that supports both our security and facilitation objectives and does not disadvantage our domestic airlines at the same time. The full committee plans on taking up pre-clearance legislation once again later this month, actually, and I certainly look forward to its quick passage by both the House and the Senate.    Defeating terrorists' ability to move internationally has long been a focus area for this subcommittee. We have and will continue to be champions for pushing the border out because our National security demands it.    So we will be looking forward to hearing from Mr. Wagner on CBP's plans to expand pre-clearance operations overseas. We are also interested in hearing more about the work that the DHS led vetted units throughout the world, including Central America, to help better capacity of law enforcement, to build the capacity of law enforcement, and to help lead to better conditions to reduce migration into the United States.    Our enemies are intent on attacking our country and are actively seeking to avoid our countermeasures. We must be one step ahead instead of constantly reacting to their latest attack. DHS' presence overseas is the crucial part of the outer ring of border security and provides many opportunities to break up plots early in the travel and visa cycle.    The purpose, again, of this hearing to make sure that DHS and the Government as a whole are taking full advantage of every tool in our tool kit to limit terrorist mobility as far from our shores as possible and to ensure that limited taxpayer funds are used as effectively as possible.    Again, I thank the witnesses for being here this morning. We look forward to all of your testimony.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412580</t>
   </si>
   <si>
-    <t>Filemon Vela</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vela. I would like to thank Chairman Miller for holding today's hearing, examining the Homeland Security's international border security program. I would like to file my written statement for the record, if you might.</t>
   </si>
   <si>
@@ -79,27 +73,18 @@
     <t xml:space="preserve">    Mrs. Miller. I want to thank the gentleman very much for his opening statement because, as this subcommittee hearing is about the outer ring of border security as we think about terrorist activity, it is stopping it, as we said, before it comes from overseas, here right on our own border, particularly the Southern Border.    As you know, I am on the Northern Border. But listening to you about gun battles and kidnapping and people disappearing, some of our veterans, et cetera, in criminal activity that is happening there, it is a very sober reminder of the challenges that we face. All the folks that are lined up in front of us today are helping us to face those challenges. So that we will be something that will be interested in hearing.    Other Members of the committee are reminded that opening statements may be submitted for the record.    Let me formally introduce our four witnesses. We will start with Mr. Bersin, who serves as the assistant secretary and chief diplomatic officer of the U.S. Department of Homeland Security's Office of Policy.    In this capacity, Mr. Bersin oversees DHS' international engagement, serves as the principal adviser to the Secretary in all matters pertaining to international affairs, and is responsible for leading the Department's strategic planning and policy formulation functions. From 2010 to 2011, Mr. Bersin served as acting commissioner of the U.S. Customs and Border Protection.    Mr. John Wagner became deputy assistant commissioner, Office of Field Operations, in April 2014. He has been assigned to U.S. Customs and Border Protection at headquarters in the District of Columbia since 1999 and has worked on many different policy and operational issues. He has led many of the OFO's business transformation efforts, including the deployment of the internationally acclaimed Global Entry program and the Automated Passport Control kiosk for international travelers.    Mr. Lev Kubiak assumed the role of assistant director of international operations at U.S. Immigration and Customs Enforcement in June 2014. In this position, Mr. Kubiak is responsible for a budget of more than $130 million and the operational oversight of 63 offices in 46 countries and 8 Department of Defense liaison offices, with over 400 personnel. He began his career as a special agent in the agency's Detroit office in 1995. In November 2001, he transferred to the U.S. Customs Services Office of International Affairs in Washington,     Ms. Rebecca Gambler is a director in the U.S. Government Accountability Office, Homeland Security and Justice Team, where she leads GAO's work on border security, immigration, and the Department of Homeland Security's management and transformation. Prior to joining GAO, Ms. Gambler worked at the National Endowment for Democracy's International Forum for Democratic Studies.    Their full statement will appear in the record.    The Chairman now recognizes Mr. Bersin for his testimony.</t>
   </si>
   <si>
-    <t>Bersin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bersin. Good morning. Thank you, Chairman Miller, Ranking Member Vela, distinguished Members of the subcommittee. It is, as always, a privilege to appear before this subcommittee. The title of the hearing is instructive: ``The Outer Ring of Border Security: DHS's International Security Programs.''    We have learned that homeland security, as the Chairman suggested, is inherently a transnational enterprise. We basically learned that, in a global world, the idea of waters as lines on a map separating one country from another is an old-fashioned idea, although it still has currency and relevance.    Instead, we have come to see homeland security as involving the flow globally of massive numbers of people, goods, ideas, capital, and now electrons on a 7/24/365-day-a-year basis. This is about massive, intensified flows of goods and people.    From this perspective, the homeland security mission is to keep dangerous people and dangerous things away from the American homeland. That requires, by definition, that we not see the traditional borders--land, sea, and air--as being the first line of defense, the 327 airports, seaports and land ports that dot our Nation, but, rather, that we view those ports of entry as the last line of defense and that, in fact, we do accomplish a lot of the work of securing the flow of goods and people, ideas, capital, and electrons toward the homeland by engaging with foreign partners abroad and by placing DHS employees abroad to actually start the process of gaining advance information so that we can conduct risk assessments and begin to differentiate between high-risk and low-risk cargo and high-risk and low-risk passengers coming to the homeland.    The Department learned this in two events in 2009 and 2010. In 2009, the underwear bomber, Umar Farouk Abdulmutallab, bought an airplane ticket in Africa, got on an airplane in Africa, flew to Schiphol airport in the Netherlands and then boarded a Northwest airliner flight headed for Detroit, intending to blow up the airplane over Detroit. Were it not for the actions of passengers on the plane, he would have accomplished his terrorist aim.    In fact, on that flight, our CBP employees had identified Abdulmutallab as a high-risk passenger and would have placed that person in secondary at the Fort Wayne County International Airport. But, of course, he would have completed his terrorist act.    We learned, therefore, that the border began in the context of air travel at the point of departure at Schiphol airport in the Netherlands and that we needed to rework the way in which we accomplished our work of protecting the American homeland.    What has happened in the last 5 years with advance passenger information systems, with pre-clearance developments, with immigration advisory programs, all of which Deputy Assistant Commissioner Wagner will be in a position to explain, and with the visa security program, and other programs that Homeland Security International conducts, we have actually moved the borders out. By placing our people abroad, working with foreign governments can secure the flow of people toward the homeland.    Ten months later, in October 2010, the Yemen plot from al-Qaeda in the Arabian Peninsula demonstrated the same with regard to cargo. The stuffing of PETN and explosives into the printer cartridges, intending to blow up a UPS and FedEx airplane, led us to look at securing cargo long before it arrived. All of those packages were addressed to synagogues in Chicago.    Yes, indeed we had intended to look at those packages when they arrived at the mail depot in O'Hare. We learned that that was not feasible. As a result, we have engaged and have expanded the international programs.    I look forward, Madam Chairman, Members of the committee, to discussing those programs with you, the theory behind it, during the course of your questioning. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you very much.    The Chairman recognizes Mr. Wagner.</t>
   </si>
   <si>
-    <t>Wagner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wagner. Good morning, Chairman Miller, Ranking Member Vela, and distinguished Members of the subcommittee. It is a privilege to appear today to discuss U.S. Customs and Border Protection's international security programs and how these efforts support our strategy to secure America's borders and facilitate legitimate travel.    CBP processes nearly 100 million travelers each year who arrive via commercial aircraft at our Nation's ports of entry. As CBP anticipates threats and develops measures to prevent terrorists and their threats from succeeding, CBP deploys a strategy that focuses on securing air travel by pushing our borders outward through, first, early identification of potential threats through targeting and information sharing; second, the ability to address these threats overseas; and, third, by building capacity with the global community to improve information sharing and early enforcement capabilities.    Through this strategy, we seek to ensure that our physical border is the last line of defense rather than the first. At CBP, we implement this strategy through a complement of international security programs, each with differing authorities and capabilities, some of which are dependent on the host country, supported by CBP's targeting capabilities and deployed strategically based on deliberative assessments, including National security, volume of travel, workload, and economic benefits. This multi-layered, intelligence-driven strategy covers different stages of the international travel sequence starting well in advance of a traveler boarding a plane.    So before traveling to the United States, most foreign nationals seeking admission to the United States must obtain either a visa or a Visa Waiver Program travel authorization through the ESTA program. From this moment, CBP begins deploying targeting and analytical capabilities through our National Targeting Center to perform assessments of the applications against law enforcement, intelligence, and National security-related data.    Last fiscal year CBP denied over 39,000 ESTA applications, of which over 800 were related to issues of National security. Once travel is booked by a person, but before that flight departs, CBP uses airline reservation data, passenger manifest, previous border inspection information, intelligence, and law enforcement information to identify potential areas of National security concern or otherwise inadmissible travelers.    CBP's then able to address any potential concerns through a suite of three international enforcement and liaison programs: Preclearance, the Immigration Advisory Program and, finally, our Regional Carrier Liaison Groups. Pre-clearance provides the highest level of enforcement capability overseas with inspection of clearance of passengers on foreign soil prior to boarding the plane.    At these locations, CBP Officers operate with authorities and operational capabilities similar to those in the United States in uniform and with the legal authorities to question travelers and inspect luggage per the negotiated agreements with the host country.    We have over 600 CBP Officers and agriculture specialists supporting pre-clearance in 15 locations in 6 countries. Last year pre-clearance accounted for over 16 million travelers, which is about 15 percent of all U.S.-bound commercial air passengers. Over 10,000 of these travelers were found to be inadmissible pre-clearance locations last year.    As announced by the Secretary last Friday, we plan to enter into pre-clearance negotiations with 10 additional airports in 9 more countries. While there is much work to do, we will be aggressively pursuing and commencing negotiations with each of these countries in the very near future. These airports were selected on the basis of 4 key evaluation criteria: Security, facilitation, feasibility, and strategic impact.    The second program I would like to discuss is the Immigration Advisory Program, where we have CBP Officers at 11 airports in 9 foreign countries. They work closely and directly with foreign authorities and air carriers to identify and address potential concerns, when necessary, and make recommendations to the airlines to not board identified individuals.    Our officers receive passenger selection information from CBP's National Targeting Center that has identified these individuals of concern. IAP officers also assess the potential risk of travelers through roving- and intelligence-based targeting. Last year the program prevented over 3,500 individuals from boarding flights to the United States, of which about 100 had National security concerns.    The third program, the Regional Carrier Liaison Group, under our National Targeting Center, provides coverage at locations not staffed by pre-clearance or the Immigration Advisory Program. This group utilizes established relationships with the commercial airline carriers and form direct lines of communication to prevent passengers of concern from boarding U.S.-bound flights who may pose a security threat, have fraudulent documents or are otherwise inadmissible.    Last fiscal year the Regional Carrier Liaison Group issued over 7,500 no-board recommendations to prevent travel to the United States, of which over 250 had National security concerns.    CBP's targeting capabilities continue up to the point of departure and even while the flight is en route to the United States, vetting passengers and travel information, including visas and ESTA authorizations. This continual vetting ensures, as noted earlier, that any changes in a traveler's eligibility are identified in real time and allows CBP to coordinate appropriate actions, such as referring individuals for further inspection when he or she arrives.    CBP will continue to engage with our interagency and informational partners and commercial air carriers to improve and expand our international security efforts.    So thank you for the opportunity to testify today, and I look forward to answering any of your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you.    Mr. Kubiak.</t>
   </si>
   <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kubiak. Good morning, Chairman Miller, Ranking Member Vela, and distinguished Members of the subcommittee.    ICE Homeland Security Investigations' most important function is to address threats to the homeland, and doing so before they reach our Nation's borders enhances the security of trade, travel, and financial systems by identifying and disrupting the illicit actors, organizations, and activities within them.    There are more than 400 HSI personnel and 63 offices around the world with foreign counterparts to mitigate threats to public safety and National security through our unique investigative authorities.    In fiscal year 2014, these attaches' efforts through their international counterpart relationships resulted in 2,500 criminal arrests, the seizure of 11,000 firearms, over a million pounds of narcotics, 400 million dollars' worth of counterfeit merchandise, and $43 million in international criminal proceeds.    In recent years, HSI has increased our effectiveness through these relationships in regions of the world that are most important to us, with programs such as the transnational criminal investigative unit and the enhancement of the visa security program. In our TCIUs, HSI special agents work alongside their vetted foreign counterparts to investigate criminal organizations that threaten the security and economy of both our countries. These TCIUs increase partner capabilities, lead to the exchange of best practices, and build stronger relationships which facilitate seamless information exchange between HSI and the host nation partners.    Vetted foreign officers attend an intense 3-week course at our academy taught by HSI and funded through partnerships with the Department of State, which builds both of our joint capacities to attack criminal networks. Just last month I had the honor of participating in the graduation of 12 Panamanians and 12 Guatemalan Federal police, who are now back in their countries working along HSI agents to decrease crime. I would invite each of you to attend one of those graduations which we will have this summer.    Currently HSI has TCIU partnerships with 8 countries with more than 200 foreign law enforcement officers. During fiscal year 2014, those TCIUs arrested 631 suspects, seized 30,000 pounds of cocaine, and $14 million in cash from various criminal organizations, to name a few accomplishments.    We are working with our Mexican counterparts to create 2 units there and additional units in Central America both this year and next with funding provided by Congress. Those units will increase our joint efforts to attack human smuggling and illicit financial networks that destabilize those countries and operate throughout the Americas.    The visa security program is another critical program that enhances security of the United States while facilitating legitimate travel. As this committee well knows, the Homeland Security Act directs DHS to assist the State Department in identifying visa applicants who seek to enter the United States for terrorist or criminal activities. The visa adjudication process presents the first opportunity to assess whether an individual seeking entry to the United States poses a threat.    HSI, its sister agency, CBP, and the State Department have collaborated to enhance visa security efforts through automation. The PATRIOT system now automatically screens visa application data against DHS holdings prior to the applicant's interview.    The PATRIOT system uses interagency and intelligence community resources to identify National security and public safety threats, and the screening is done jointly by HSI and CBP. The individuals that pose a threat are subject then to additional in-depth review of visa applications both here in the United States and by specially trained his agents overseas.    When a review and interview substantiate the threat, HSI agents recommend refusal or revocation of visas. In fiscal year 2014, the visa security program reviewed more than 2.2 million visa applications received at the 21 posts. The State Department has, to date, concurred with every one of our visa denial recommendations, nearly 8,700 last year.    It is these types of outcomes that drive us to expand. Therefore, with additional funding provided by Congress this year, HSI is expanding visa security operations to four additional posts before the end of the fiscal year and anticipates additional posts next year if funding allows.    While TCIUs and the visa security program demonstrate two important international capabilities, the bulk of HSI's principle engagement with international partners remains the routine interaction on investigative matters between our foreign deployed special agents and their international partners.    Every day, at 63 locations around the world, HSI special agents collaborate regionally with foreign law enforcement officers to dismantle or disrupt transnational criminal organizations. Our foreign personnel work tirelessly with their counterparts to investigate the full scope of our broad investigative authority.    We are involved in many other innovative efforts to enhance the Nation's security through international partnerships. We have strong collaboration with Europol. We have cooperation on cybercrimes with Interpol. We are attacking wildlife trafficking in Africa and throughout the Asia region. We are securing trade and travel throughout the world within these other efforts and these activities.    I appreciate the time of the committee today, and I look very much forward to your questions.</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Madam Chairman.    Mr. Kubiak, let me address my first question to you. That is to ask you, if you would, to go into more detail about how you intend to expand the visa security program, in other words, what new offices will be involved, how many, what criteria you will use, and what other things you are taking to better vet individuals who apply for visas. But start with the details about how you intend to expand the program first.</t>
   </si>
   <si>
@@ -232,9 +214,6 @@
     <t>412617</t>
   </si>
   <si>
-    <t>Norma J. Torres</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you so much.    I have a few questions for Deputy Assistant Commissioner Wagner. Because of limited time, I am going to ask all of them at once, so you might want to take a note or two.    I would like for you to comment on the testimony that was just given by Ms. Gambler, and I am going to quote a little bit from the report that I have in front of me and from her statement, that one-fifth of the existing CSI ports were at lower-risk locations; and also that CBP had not regularly assessed foreign ports for risks to cargo under CSI since 2005, and that when you did in 2009, they found that you did not use the results from this assessment to make modifications to the locations where CSI staff was posted because of budget cuts.    So I heard a little bit about a budget increase in a testimony earlier, but yet the testimony was that due to budget cuts we are not able to be more effective where we need to be.    My two questions, my other two questions for you, I represent the 35th District in California. We are a logistics center district. Our economy is very much dependent on the Port of Los Angeles, the Port of Long Beach. UPS has a major footprint in the district and FedEx has a smaller footprint. The Ontario International Airport is also housed in my district.    My question to you is: By expanding our borders, is that taking resources away from our inland ports that we have here in the United States? What steps are being taken to ensure that pushing out our borders and assigning Customs and Border Protection officers abroad does not undermine the security at ports such as the Ontario International Airport?    On record, I would like to have an opportunity for a dialogue with your office about issues that I have identified at Ontario Airport.</t>
   </si>
   <si>
@@ -256,9 +235,6 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you, Madam Chair.    The primary objective of the Immigration Advisory and Joint Security Programs are to stop potential terrorists and other high-risk passengers from boarding aircrafts and entering the United States. But under these programs, the no-board recommendations made by CBP Officers are only voluntary.    Mr. Wagner, can you speak to the frequency with which CBP's recommendations under these programs are followed? In light of the growing threat of the Islamic State, are there any plans to make these recommendations have more force or to otherwise implement additional measures to prevent foreign fighters from boarding planes to the United States?</t>
   </si>
   <si>
@@ -280,9 +256,6 @@
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Madam Chair, for this opportunity to have this hearing. I think it is an important issue.    To our panelists, thanks for your presence here today.    My first set of questions I think are for you, Mr. Kubiak, about the PATRIOT Program. It is my understanding this is a program that helps screen and vet visa applicants and that it is only at posts overseas where they have an existing visa security program, is that correct?</t>
   </si>
   <si>
@@ -353,9 +326,6 @@
   </si>
   <si>
     <t>412611</t>
-  </si>
-  <si>
-    <t>Martha McSally</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Madam Chair. Thanks to our panel today.    I recently received two demonstrations related to deception-detection technology developed at the University of Arizona, which is in my district. I don't want to get too deep into the science behind it, but the two I want to talk about is, one of them is called Neuro-Screen, which identifies just embedded in on-line forms any sort of deception behavior, that can then further vet individuals, red, yellow, green, for further interviews and further vetting based on a suspicious score. The other one, called AVATAR, is like a computer interview detecting your pupils and your skin and your weight shifting, all that kind of stuff.    So it looks like very interesting technology that could be used, both of them differently. I mean, the Neuro-Screen is much more easily deployable perhaps than AVATAR, but it could be used for the on-line form interviews for the Electronic System for Travel Authorization or for the in-person interviews or even at the ports of entry in order to detect what humans might not be able to detect. The professors told me that even our best, most trained interrogators, like my colleague here from Texas, oftentimes don't detect deception correctly in about 50 percent of the cases just human to human.    So the question is: To what extent is the Department using any deception-detection technology or investigating the use of technology like this? The first part of that question.</t>
@@ -853,11 +823,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -879,11 +847,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -903,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -931,11 +895,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -955,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -983,11 +943,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1009,11 +967,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1035,11 +991,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1061,11 +1015,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1087,11 +1039,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1113,11 +1063,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1139,11 +1087,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1165,11 +1111,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1191,11 +1135,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1217,11 +1159,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1243,11 +1183,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1269,11 +1207,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1295,11 +1231,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1321,11 +1255,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1347,11 +1279,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1373,11 +1303,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1399,11 +1327,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1425,11 +1351,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1451,11 +1375,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1477,11 +1399,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1503,11 +1423,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1527,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1555,11 +1471,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1579,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1607,11 +1519,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1631,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1659,11 +1567,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1683,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1711,11 +1615,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1735,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1763,11 +1663,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1787,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1815,11 +1711,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1839,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
         <v>52</v>
-      </c>
-      <c r="G40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1867,11 +1759,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1891,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1917,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1943,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1969,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1995,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2021,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2049,11 +1927,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2073,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2101,11 +1975,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2125,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2153,11 +2023,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2177,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2205,11 +2071,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2231,11 +2095,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2255,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2283,11 +2143,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2309,11 +2167,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2333,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2361,11 +2215,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2385,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2413,11 +2263,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2437,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2465,11 +2311,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2489,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2517,11 +2359,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2541,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2569,11 +2407,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>27</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2593,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2621,11 +2455,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2645,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2673,11 +2503,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>27</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2697,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>88</v>
-      </c>
-      <c r="H73" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2725,11 +2551,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>27</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2749,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2777,11 +2599,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2801,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2829,11 +2647,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2853,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
-      </c>
-      <c r="G79" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2881,11 +2695,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2905,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
-      </c>
-      <c r="G81" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2933,11 +2743,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2957,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>87</v>
-      </c>
-      <c r="G83" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2983,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G84" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3011,11 +2815,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3035,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G86" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3063,11 +2863,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3087,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3115,11 +2911,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3139,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
-      </c>
-      <c r="G90" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3167,11 +2959,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3191,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
-      </c>
-      <c r="G92" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3219,11 +3007,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3243,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
-      </c>
-      <c r="G94" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3271,11 +3055,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3295,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
+        <v>103</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
         <v>112</v>
-      </c>
-      <c r="G96" t="s">
-        <v>113</v>
-      </c>
-      <c r="H96" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3323,11 +3103,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3347,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3375,11 +3151,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>21</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3399,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3427,11 +3199,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3451,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>87</v>
-      </c>
-      <c r="G102" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3479,11 +3247,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3503,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>87</v>
-      </c>
-      <c r="G104" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3531,11 +3295,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3555,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>87</v>
-      </c>
-      <c r="G106" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3581,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>87</v>
-      </c>
-      <c r="G107" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3609,11 +3367,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3633,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>71</v>
-      </c>
-      <c r="G109" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3661,11 +3415,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>21</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3685,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>71</v>
-      </c>
-      <c r="G111" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3713,11 +3463,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3737,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>112</v>
-      </c>
-      <c r="G113" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3765,11 +3511,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>21</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3789,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>112</v>
-      </c>
-      <c r="G115" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3817,11 +3559,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>21</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3841,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>112</v>
-      </c>
-      <c r="G117" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3869,11 +3607,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>21</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3893,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>112</v>
-      </c>
-      <c r="G119" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3921,11 +3655,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95682.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95682.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Miller. I think we are expecting a few more Members, but in the interest of time and there are a number of hearings happening this morning, the Committee on Homeland Security, Subcommittee on Border and Maritime Security, will come to order. The subcommittee is meeting today to examine the Department of Homeland Security's international programs.    We are pleased to be joined by Mr. Alan Bersin, who is a frequent guest here, of the Department of Homeland Security's Office of Policy; Mr. John Wagner, again another frequent guest, from the Office of Field Operations at U.S. Customs and Border Protection; Mr. Lev Kubiak of the U.S. Immigration and Customs Enforcement--I appreciate him coming again--and, also, Ms. Rebecca Gambler is back again of the Government Accountability Office.    We learned on 9/11 and again with the Christmas day bomber that we cannot wait to act until terror plots reach our shores. Pushing our borders out gives the Nation's security professionals the time and space to interdict plots before they reach the homeland. For more than 10 years the Department of Homeland Security and, in particular, its operational components have done just that.    Today we have several programs in place to stop suspected terrorists, foreign fighters, and others with significant derogatory information provided by the intelligence community from ever coming to America. No system is perfect, of course.    But the earlier in the travel and the visa process we can begin to conduct security checks, have a CBP Officer examine and pre-clear an individual or do a security advisory opinion to make sure we are examining visas appropriately, the safer the homeland will be.    The vetting these programs do has created an outer ring of border security which has become even more important due to the significant and growing threat that fighters from the Islamic State of Iraq and Syria, ISIS, pose to our Nation.    These fighters could be one flight away, bringing with them the skills, training, ideology, and commitment to killing Americans that they learned overseas, and that is why it is so important that the DHS officers and attaches abroad conduct security operations.    Today the DHS has a large footprint overseas with more than 1,800 people stationed in 77 foreign countries across the globe. I certainly understand that the posting of DHS personnel overseas is a cumbersome process with significant costs. In many cases, it costs more than $500,000 per person each year. Space is limited at many consulates and embassies overseas.    So it is incumbent on the Department to use and to constantly update its risk-based approach so that the American people are getting good security value for the expense. Threats that originate overseas have evolved over time, and our security posture should evolve with it.    DHS should constantly re-evaluate the location of their officers to ensure that we have our men and women in the right countries. Additionally, if we can do some of the screening and vetting work here at home, we should.    When the security of the homeland requires the Department to have officers overseas, we need to maximize their use to cover multiple countries within their respective issue areas as well as ensure their personal safety.    To that end, we are glad to see that, in many cases, the DHS utilizes a regional model where its attaches are covering several nearby countries to make sure the Department's investigations are being properly supported overseas.    We are also pleased that where we have the visa security program officers overseas we have the PATRIOT program that examines the totality of data on ESTA and visa applications. However, this program is limited to just those posts where visa security units are in place.    Despite the visa security program's proven security value and robust Congressional support, this program has not been expanded to all high-risk posts overseas. No issue has kept CBP leadership busier over the past few years than pre-clearance operations.    Failure to properly consult with stakeholders and the Congress and other process fouls on pre-clearance expansion caused a great deal of consternation on Capitol Hill and in this committee. I hope that the Department has looked at some of the early missteps and will keep Congress fully abreast of future plans, especially in light of the recent announcement of the intention to expand pre-clearance to 10 additional locations.    We certainly want to be clear that we support pre-clearance where it makes sense. Pre-clearance has been used as a security screening and trade facilitation tool since the early 1950s, and since 9/11 the security value of these operations has only been heightened. However, as was made clear by legislation the House passed last year, we cannot repeat the mistakes of the Abu Dhabi agreement.    Expansion of pre-clearance has to be done is such a way that supports both our security and facilitation objectives and does not disadvantage our domestic airlines at the same time. The full committee plans on taking up pre-clearance legislation once again later this month, actually, and I certainly look forward to its quick passage by both the House and the Senate.    Defeating terrorists' ability to move internationally has long been a focus area for this subcommittee. We have and will continue to be champions for pushing the border out because our National security demands it.    So we will be looking forward to hearing from Mr. Wagner on CBP's plans to expand pre-clearance operations overseas. We are also interested in hearing more about the work that the DHS led vetted units throughout the world, including Central America, to help better capacity of law enforcement, to build the capacity of law enforcement, and to help lead to better conditions to reduce migration into the United States.    Our enemies are intent on attacking our country and are actively seeking to avoid our countermeasures. We must be one step ahead instead of constantly reacting to their latest attack. DHS' presence overseas is the crucial part of the outer ring of border security and provides many opportunities to break up plots early in the travel and visa cycle.    The purpose, again, of this hearing to make sure that DHS and the Government as a whole are taking full advantage of every tool in our tool kit to limit terrorist mobility as far from our shores as possible and to ensure that limited taxpayer funds are used as effectively as possible.    Again, I thank the witnesses for being here this morning. We look forward to all of your testimony.</t>
   </si>
   <si>
@@ -61,6 +67,12 @@
     <t>412580</t>
   </si>
   <si>
+    <t>Vela</t>
+  </si>
+  <si>
+    <t>Filemon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vela. I would like to thank Chairman Miller for holding today's hearing, examining the Homeland Security's international border security program. I would like to file my written statement for the record, if you might.</t>
   </si>
   <si>
@@ -73,18 +85,27 @@
     <t xml:space="preserve">    Mrs. Miller. I want to thank the gentleman very much for his opening statement because, as this subcommittee hearing is about the outer ring of border security as we think about terrorist activity, it is stopping it, as we said, before it comes from overseas, here right on our own border, particularly the Southern Border.    As you know, I am on the Northern Border. But listening to you about gun battles and kidnapping and people disappearing, some of our veterans, et cetera, in criminal activity that is happening there, it is a very sober reminder of the challenges that we face. All the folks that are lined up in front of us today are helping us to face those challenges. So that we will be something that will be interested in hearing.    Other Members of the committee are reminded that opening statements may be submitted for the record.    Let me formally introduce our four witnesses. We will start with Mr. Bersin, who serves as the assistant secretary and chief diplomatic officer of the U.S. Department of Homeland Security's Office of Policy.    In this capacity, Mr. Bersin oversees DHS' international engagement, serves as the principal adviser to the Secretary in all matters pertaining to international affairs, and is responsible for leading the Department's strategic planning and policy formulation functions. From 2010 to 2011, Mr. Bersin served as acting commissioner of the U.S. Customs and Border Protection.    Mr. John Wagner became deputy assistant commissioner, Office of Field Operations, in April 2014. He has been assigned to U.S. Customs and Border Protection at headquarters in the District of Columbia since 1999 and has worked on many different policy and operational issues. He has led many of the OFO's business transformation efforts, including the deployment of the internationally acclaimed Global Entry program and the Automated Passport Control kiosk for international travelers.    Mr. Lev Kubiak assumed the role of assistant director of international operations at U.S. Immigration and Customs Enforcement in June 2014. In this position, Mr. Kubiak is responsible for a budget of more than $130 million and the operational oversight of 63 offices in 46 countries and 8 Department of Defense liaison offices, with over 400 personnel. He began his career as a special agent in the agency's Detroit office in 1995. In November 2001, he transferred to the U.S. Customs Services Office of International Affairs in Washington,     Ms. Rebecca Gambler is a director in the U.S. Government Accountability Office, Homeland Security and Justice Team, where she leads GAO's work on border security, immigration, and the Department of Homeland Security's management and transformation. Prior to joining GAO, Ms. Gambler worked at the National Endowment for Democracy's International Forum for Democratic Studies.    Their full statement will appear in the record.    The Chairman now recognizes Mr. Bersin for his testimony.</t>
   </si>
   <si>
+    <t>Bersin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bersin. Good morning. Thank you, Chairman Miller, Ranking Member Vela, distinguished Members of the subcommittee. It is, as always, a privilege to appear before this subcommittee. The title of the hearing is instructive: ``The Outer Ring of Border Security: DHS's International Security Programs.''    We have learned that homeland security, as the Chairman suggested, is inherently a transnational enterprise. We basically learned that, in a global world, the idea of waters as lines on a map separating one country from another is an old-fashioned idea, although it still has currency and relevance.    Instead, we have come to see homeland security as involving the flow globally of massive numbers of people, goods, ideas, capital, and now electrons on a 7/24/365-day-a-year basis. This is about massive, intensified flows of goods and people.    From this perspective, the homeland security mission is to keep dangerous people and dangerous things away from the American homeland. That requires, by definition, that we not see the traditional borders--land, sea, and air--as being the first line of defense, the 327 airports, seaports and land ports that dot our Nation, but, rather, that we view those ports of entry as the last line of defense and that, in fact, we do accomplish a lot of the work of securing the flow of goods and people, ideas, capital, and electrons toward the homeland by engaging with foreign partners abroad and by placing DHS employees abroad to actually start the process of gaining advance information so that we can conduct risk assessments and begin to differentiate between high-risk and low-risk cargo and high-risk and low-risk passengers coming to the homeland.    The Department learned this in two events in 2009 and 2010. In 2009, the underwear bomber, Umar Farouk Abdulmutallab, bought an airplane ticket in Africa, got on an airplane in Africa, flew to Schiphol airport in the Netherlands and then boarded a Northwest airliner flight headed for Detroit, intending to blow up the airplane over Detroit. Were it not for the actions of passengers on the plane, he would have accomplished his terrorist aim.    In fact, on that flight, our CBP employees had identified Abdulmutallab as a high-risk passenger and would have placed that person in secondary at the Fort Wayne County International Airport. But, of course, he would have completed his terrorist act.    We learned, therefore, that the border began in the context of air travel at the point of departure at Schiphol airport in the Netherlands and that we needed to rework the way in which we accomplished our work of protecting the American homeland.    What has happened in the last 5 years with advance passenger information systems, with pre-clearance developments, with immigration advisory programs, all of which Deputy Assistant Commissioner Wagner will be in a position to explain, and with the visa security program, and other programs that Homeland Security International conducts, we have actually moved the borders out. By placing our people abroad, working with foreign governments can secure the flow of people toward the homeland.    Ten months later, in October 2010, the Yemen plot from al-Qaeda in the Arabian Peninsula demonstrated the same with regard to cargo. The stuffing of PETN and explosives into the printer cartridges, intending to blow up a UPS and FedEx airplane, led us to look at securing cargo long before it arrived. All of those packages were addressed to synagogues in Chicago.    Yes, indeed we had intended to look at those packages when they arrived at the mail depot in O'Hare. We learned that that was not feasible. As a result, we have engaged and have expanded the international programs.    I look forward, Madam Chairman, Members of the committee, to discussing those programs with you, the theory behind it, during the course of your questioning. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you very much.    The Chairman recognizes Mr. Wagner.</t>
   </si>
   <si>
+    <t>Wagner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wagner. Good morning, Chairman Miller, Ranking Member Vela, and distinguished Members of the subcommittee. It is a privilege to appear today to discuss U.S. Customs and Border Protection's international security programs and how these efforts support our strategy to secure America's borders and facilitate legitimate travel.    CBP processes nearly 100 million travelers each year who arrive via commercial aircraft at our Nation's ports of entry. As CBP anticipates threats and develops measures to prevent terrorists and their threats from succeeding, CBP deploys a strategy that focuses on securing air travel by pushing our borders outward through, first, early identification of potential threats through targeting and information sharing; second, the ability to address these threats overseas; and, third, by building capacity with the global community to improve information sharing and early enforcement capabilities.    Through this strategy, we seek to ensure that our physical border is the last line of defense rather than the first. At CBP, we implement this strategy through a complement of international security programs, each with differing authorities and capabilities, some of which are dependent on the host country, supported by CBP's targeting capabilities and deployed strategically based on deliberative assessments, including National security, volume of travel, workload, and economic benefits. This multi-layered, intelligence-driven strategy covers different stages of the international travel sequence starting well in advance of a traveler boarding a plane.    So before traveling to the United States, most foreign nationals seeking admission to the United States must obtain either a visa or a Visa Waiver Program travel authorization through the ESTA program. From this moment, CBP begins deploying targeting and analytical capabilities through our National Targeting Center to perform assessments of the applications against law enforcement, intelligence, and National security-related data.    Last fiscal year CBP denied over 39,000 ESTA applications, of which over 800 were related to issues of National security. Once travel is booked by a person, but before that flight departs, CBP uses airline reservation data, passenger manifest, previous border inspection information, intelligence, and law enforcement information to identify potential areas of National security concern or otherwise inadmissible travelers.    CBP's then able to address any potential concerns through a suite of three international enforcement and liaison programs: Preclearance, the Immigration Advisory Program and, finally, our Regional Carrier Liaison Groups. Pre-clearance provides the highest level of enforcement capability overseas with inspection of clearance of passengers on foreign soil prior to boarding the plane.    At these locations, CBP Officers operate with authorities and operational capabilities similar to those in the United States in uniform and with the legal authorities to question travelers and inspect luggage per the negotiated agreements with the host country.    We have over 600 CBP Officers and agriculture specialists supporting pre-clearance in 15 locations in 6 countries. Last year pre-clearance accounted for over 16 million travelers, which is about 15 percent of all U.S.-bound commercial air passengers. Over 10,000 of these travelers were found to be inadmissible pre-clearance locations last year.    As announced by the Secretary last Friday, we plan to enter into pre-clearance negotiations with 10 additional airports in 9 more countries. While there is much work to do, we will be aggressively pursuing and commencing negotiations with each of these countries in the very near future. These airports were selected on the basis of 4 key evaluation criteria: Security, facilitation, feasibility, and strategic impact.    The second program I would like to discuss is the Immigration Advisory Program, where we have CBP Officers at 11 airports in 9 foreign countries. They work closely and directly with foreign authorities and air carriers to identify and address potential concerns, when necessary, and make recommendations to the airlines to not board identified individuals.    Our officers receive passenger selection information from CBP's National Targeting Center that has identified these individuals of concern. IAP officers also assess the potential risk of travelers through roving- and intelligence-based targeting. Last year the program prevented over 3,500 individuals from boarding flights to the United States, of which about 100 had National security concerns.    The third program, the Regional Carrier Liaison Group, under our National Targeting Center, provides coverage at locations not staffed by pre-clearance or the Immigration Advisory Program. This group utilizes established relationships with the commercial airline carriers and form direct lines of communication to prevent passengers of concern from boarding U.S.-bound flights who may pose a security threat, have fraudulent documents or are otherwise inadmissible.    Last fiscal year the Regional Carrier Liaison Group issued over 7,500 no-board recommendations to prevent travel to the United States, of which over 250 had National security concerns.    CBP's targeting capabilities continue up to the point of departure and even while the flight is en route to the United States, vetting passengers and travel information, including visas and ESTA authorizations. This continual vetting ensures, as noted earlier, that any changes in a traveler's eligibility are identified in real time and allows CBP to coordinate appropriate actions, such as referring individuals for further inspection when he or she arrives.    CBP will continue to engage with our interagency and informational partners and commercial air carriers to improve and expand our international security efforts.    So thank you for the opportunity to testify today, and I look forward to answering any of your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Miller. Thank you.    Mr. Kubiak.</t>
   </si>
   <si>
+    <t>Kubiak</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kubiak. Good morning, Chairman Miller, Ranking Member Vela, and distinguished Members of the subcommittee.    ICE Homeland Security Investigations' most important function is to address threats to the homeland, and doing so before they reach our Nation's borders enhances the security of trade, travel, and financial systems by identifying and disrupting the illicit actors, organizations, and activities within them.    There are more than 400 HSI personnel and 63 offices around the world with foreign counterparts to mitigate threats to public safety and National security through our unique investigative authorities.    In fiscal year 2014, these attaches' efforts through their international counterpart relationships resulted in 2,500 criminal arrests, the seizure of 11,000 firearms, over a million pounds of narcotics, 400 million dollars' worth of counterfeit merchandise, and $43 million in international criminal proceeds.    In recent years, HSI has increased our effectiveness through these relationships in regions of the world that are most important to us, with programs such as the transnational criminal investigative unit and the enhancement of the visa security program. In our TCIUs, HSI special agents work alongside their vetted foreign counterparts to investigate criminal organizations that threaten the security and economy of both our countries. These TCIUs increase partner capabilities, lead to the exchange of best practices, and build stronger relationships which facilitate seamless information exchange between HSI and the host nation partners.    Vetted foreign officers attend an intense 3-week course at our academy taught by HSI and funded through partnerships with the Department of State, which builds both of our joint capacities to attack criminal networks. Just last month I had the honor of participating in the graduation of 12 Panamanians and 12 Guatemalan Federal police, who are now back in their countries working along HSI agents to decrease crime. I would invite each of you to attend one of those graduations which we will have this summer.    Currently HSI has TCIU partnerships with 8 countries with more than 200 foreign law enforcement officers. During fiscal year 2014, those TCIUs arrested 631 suspects, seized 30,000 pounds of cocaine, and $14 million in cash from various criminal organizations, to name a few accomplishments.    We are working with our Mexican counterparts to create 2 units there and additional units in Central America both this year and next with funding provided by Congress. Those units will increase our joint efforts to attack human smuggling and illicit financial networks that destabilize those countries and operate throughout the Americas.    The visa security program is another critical program that enhances security of the United States while facilitating legitimate travel. As this committee well knows, the Homeland Security Act directs DHS to assist the State Department in identifying visa applicants who seek to enter the United States for terrorist or criminal activities. The visa adjudication process presents the first opportunity to assess whether an individual seeking entry to the United States poses a threat.    HSI, its sister agency, CBP, and the State Department have collaborated to enhance visa security efforts through automation. The PATRIOT system now automatically screens visa application data against DHS holdings prior to the applicant's interview.    The PATRIOT system uses interagency and intelligence community resources to identify National security and public safety threats, and the screening is done jointly by HSI and CBP. The individuals that pose a threat are subject then to additional in-depth review of visa applications both here in the United States and by specially trained his agents overseas.    When a review and interview substantiate the threat, HSI agents recommend refusal or revocation of visas. In fiscal year 2014, the visa security program reviewed more than 2.2 million visa applications received at the 21 posts. The State Department has, to date, concurred with every one of our visa denial recommendations, nearly 8,700 last year.    It is these types of outcomes that drive us to expand. Therefore, with additional funding provided by Congress this year, HSI is expanding visa security operations to four additional posts before the end of the fiscal year and anticipates additional posts next year if funding allows.    While TCIUs and the visa security program demonstrate two important international capabilities, the bulk of HSI's principle engagement with international partners remains the routine interaction on investigative matters between our foreign deployed special agents and their international partners.    Every day, at 63 locations around the world, HSI special agents collaborate regionally with foreign law enforcement officers to dismantle or disrupt transnational criminal organizations. Our foreign personnel work tirelessly with their counterparts to investigate the full scope of our broad investigative authority.    We are involved in many other innovative efforts to enhance the Nation's security through international partnerships. We have strong collaboration with Europol. We have cooperation on cybercrimes with Interpol. We are attacking wildlife trafficking in Africa and throughout the Asia region. We are securing trade and travel throughout the world within these other efforts and these activities.    I appreciate the time of the committee today, and I look very much forward to your questions.</t>
   </si>
   <si>
@@ -160,6 +181,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Madam Chairman.    Mr. Kubiak, let me address my first question to you. That is to ask you, if you would, to go into more detail about how you intend to expand the visa security program, in other words, what new offices will be involved, how many, what criteria you will use, and what other things you are taking to better vet individuals who apply for visas. But start with the details about how you intend to expand the program first.</t>
   </si>
   <si>
@@ -214,6 +241,12 @@
     <t>412617</t>
   </si>
   <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you so much.    I have a few questions for Deputy Assistant Commissioner Wagner. Because of limited time, I am going to ask all of them at once, so you might want to take a note or two.    I would like for you to comment on the testimony that was just given by Ms. Gambler, and I am going to quote a little bit from the report that I have in front of me and from her statement, that one-fifth of the existing CSI ports were at lower-risk locations; and also that CBP had not regularly assessed foreign ports for risks to cargo under CSI since 2005, and that when you did in 2009, they found that you did not use the results from this assessment to make modifications to the locations where CSI staff was posted because of budget cuts.    So I heard a little bit about a budget increase in a testimony earlier, but yet the testimony was that due to budget cuts we are not able to be more effective where we need to be.    My two questions, my other two questions for you, I represent the 35th District in California. We are a logistics center district. Our economy is very much dependent on the Port of Los Angeles, the Port of Long Beach. UPS has a major footprint in the district and FedEx has a smaller footprint. The Ontario International Airport is also housed in my district.    My question to you is: By expanding our borders, is that taking resources away from our inland ports that we have here in the United States? What steps are being taken to ensure that pushing out our borders and assigning Customs and Border Protection officers abroad does not undermine the security at ports such as the Ontario International Airport?    On record, I would like to have an opportunity for a dialogue with your office about issues that I have identified at Ontario Airport.</t>
   </si>
   <si>
@@ -235,6 +268,12 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you, Madam Chair.    The primary objective of the Immigration Advisory and Joint Security Programs are to stop potential terrorists and other high-risk passengers from boarding aircrafts and entering the United States. But under these programs, the no-board recommendations made by CBP Officers are only voluntary.    Mr. Wagner, can you speak to the frequency with which CBP's recommendations under these programs are followed? In light of the growing threat of the Islamic State, are there any plans to make these recommendations have more force or to otherwise implement additional measures to prevent foreign fighters from boarding planes to the United States?</t>
   </si>
   <si>
@@ -256,6 +295,12 @@
     <t>412654</t>
   </si>
   <si>
+    <t>Hurd</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Madam Chair, for this opportunity to have this hearing. I think it is an important issue.    To our panelists, thanks for your presence here today.    My first set of questions I think are for you, Mr. Kubiak, about the PATRIOT Program. It is my understanding this is a program that helps screen and vet visa applicants and that it is only at posts overseas where they have an existing visa security program, is that correct?</t>
   </si>
   <si>
@@ -326,6 +371,12 @@
   </si>
   <si>
     <t>412611</t>
+  </si>
+  <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Madam Chair. Thanks to our panel today.    I recently received two demonstrations related to deception-detection technology developed at the University of Arizona, which is in my district. I don't want to get too deep into the science behind it, but the two I want to talk about is, one of them is called Neuro-Screen, which identifies just embedded in on-line forms any sort of deception behavior, that can then further vet individuals, red, yellow, green, for further interviews and further vetting based on a suspicious score. The other one, called AVATAR, is like a computer interview detecting your pupils and your skin and your weight shifting, all that kind of stuff.    So it looks like very interesting technology that could be used, both of them differently. I mean, the Neuro-Screen is much more easily deployable perhaps than AVATAR, but it could be used for the on-line form interviews for the Electronic System for Travel Authorization or for the in-person interviews or even at the ports of entry in order to detect what humans might not be able to detect. The professors told me that even our best, most trained interrogators, like my colleague here from Texas, oftentimes don't detect deception correctly in about 50 percent of the cases just human to human.    So the question is: To what extent is the Department using any deception-detection technology or investigating the use of technology like this? The first part of that question.</t>
@@ -773,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,2861 +854,3323 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
       <c r="H44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G65" t="s">
+        <v>93</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G71" t="s">
+        <v>93</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G73" t="s">
+        <v>93</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G77" t="s">
+        <v>93</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G79" t="s">
+        <v>93</v>
+      </c>
       <c r="H79" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G81" t="s">
+        <v>93</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G83" t="s">
+        <v>93</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G84" t="s">
+        <v>93</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G86" t="s">
+        <v>93</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G88" t="s">
+        <v>119</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G90" t="s">
+        <v>119</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G92" t="s">
+        <v>119</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G94" t="s">
+        <v>119</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G96" t="s">
+        <v>119</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>79</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G102" t="s">
+        <v>93</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G104" t="s">
+        <v>93</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G106" t="s">
+        <v>93</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>79</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G107" t="s">
+        <v>93</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>65</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G109" t="s">
+        <v>75</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>65</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G111" t="s">
+        <v>75</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>103</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G113" t="s">
+        <v>119</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>103</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G115" t="s">
+        <v>119</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>103</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G117" t="s">
+        <v>119</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>103</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G119" t="s">
+        <v>119</v>
+      </c>
       <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>136</v>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95682.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95682.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>412580</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Vela</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -371,6 +380,9 @@
   </si>
   <si>
     <t>412611</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>McSally</t>
@@ -824,7 +836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +844,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,3320 +869,3544 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I61" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I67" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G75" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G77" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G79" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G81" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G84" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H84" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G86" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H86" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H88" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H90" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I96" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G102" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H102" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I102" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G104" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H104" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G106" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H106" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G107" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H107" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G109" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H109" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H111" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G113" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H113" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>23</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>25</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G115" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H115" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I115" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>23</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G117" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H117" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I117" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G119" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H119" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>153</v>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
